--- a/swagger/locales/translate.xlsx
+++ b/swagger/locales/translate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="440" windowWidth="27720" windowHeight="17560" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="1080" yWindow="440" windowWidth="27720" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="standard" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17210" uniqueCount="2414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17210" uniqueCount="2417">
   <si>
     <t>利益展示结果列表</t>
   </si>
@@ -7280,6 +7280,15 @@
   </si>
   <si>
     <t>Update proposal information and call AnXin's inforce service after the payment callback</t>
+  </si>
+  <si>
+    <t>Enquiry proposal base on the according conditions</t>
+  </si>
+  <si>
+    <t>Call eBaoCloud premium calculation service</t>
+  </si>
+  <si>
+    <t>Call eBaoCloud benefit illustration calculation service</t>
   </si>
 </sst>
 </file>
@@ -7335,8 +7344,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7366,7 +7379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7379,6 +7392,8 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7391,6 +7406,8 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -19200,9 +19217,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C234" sqref="C2:C234"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C232" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21508,7 +21525,7 @@
         <v>2179</v>
       </c>
       <c r="C209" t="s">
-        <v>2386</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -21673,7 +21690,7 @@
         <v>2143</v>
       </c>
       <c r="C224" t="s">
-        <v>2390</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -21750,7 +21767,7 @@
         <v>2143</v>
       </c>
       <c r="C231" t="s">
-        <v>2390</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -21761,7 +21778,7 @@
         <v>2396</v>
       </c>
       <c r="C232" t="s">
-        <v>2397</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -21801,7 +21818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1046"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A1031" workbookViewId="0">
       <selection activeCell="A1058" sqref="A1058"/>
     </sheetView>
   </sheetViews>
@@ -33334,14 +33351,16 @@
   <dimension ref="A1:D1279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1047" sqref="A1047:D1279"/>
+      <pane ySplit="1" topLeftCell="A1260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D1279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="83.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="74.5" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -51253,6 +51272,7 @@
   </sheetData>
   <autoFilter ref="A1:D1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -51260,9 +51280,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1047" sqref="C1047:C1279"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1047" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1058" sqref="A1:D1279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
